--- a/cleaned all season/bowlerset_ipl.xlsx
+++ b/cleaned all season/bowlerset_ipl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned all season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned all season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40BD05-FA2D-C848-862C-38ECCA73EAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5AB03D-C3D8-C148-A3A5-C82D4097BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="900" windowWidth="14440" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>Player</t>
   </si>
@@ -365,13 +365,16 @@
   </si>
   <si>
     <t>RS Hangargekar</t>
+  </si>
+  <si>
+    <t>PW Hasaranga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +387,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -427,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,6 +450,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4243,6 +4262,53 @@
         <v>7</v>
       </c>
     </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="7">
+        <v>26</v>
+      </c>
+      <c r="D75" s="7">
+        <v>26</v>
+      </c>
+      <c r="E75" s="7">
+        <v>92</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7">
+        <v>748</v>
+      </c>
+      <c r="H75" s="7">
+        <v>35</v>
+      </c>
+      <c r="I75" s="7">
+        <v>21.37</v>
+      </c>
+      <c r="J75" s="7">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="K75" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="L75" s="7">
+        <v>1</v>
+      </c>
+      <c r="M75" s="7">
+        <v>1</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O75" s="7">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O72">
     <sortCondition ref="A1:A72"/>
